--- a/backend/schedules/formattingfall.xlsx
+++ b/backend/schedules/formattingfall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\Documents\Course Scheduler\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdleg\Downloads\Programs\Mac_Calendar\v1\backend\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3DA51C-5DE0-4771-A122-9B4921D6B4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB29CE0B-3FA9-4EB1-A2BB-7F63FA2A7A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1596" yWindow="360" windowWidth="20676" windowHeight="11304" xr2:uid="{E995DC54-3819-43BE-8032-6F2DF4EEAA3C}"/>
+    <workbookView xWindow="3060" yWindow="4320" windowWidth="21600" windowHeight="11835" xr2:uid="{E995DC54-3819-43BE-8032-6F2DF4EEAA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>LEVEL 2 ENGPHYS and MANAGEMNT</t>
   </si>
   <si>
-    <t>COMMERCE 1AA3</t>
-  </si>
-  <si>
     <t>Intro Financial</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>BSB_108</t>
+  </si>
+  <si>
+    <t>COMMERCE</t>
   </si>
 </sst>
 </file>
@@ -783,45 +783,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E4A7C-EC86-4865-956A-D94F151C0070}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2241</v>
       </c>
@@ -843,16 +843,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>12.3</v>
@@ -861,10 +861,10 @@
         <v>14.2</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2241</v>
       </c>
@@ -872,16 +872,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>12.3</v>
@@ -890,11 +890,11 @@
         <v>13.2</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -934,11 +934,11 @@
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -952,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -969,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>8.3000000000000007</v>
@@ -978,13 +978,13 @@
         <v>11.2</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
         <v>0</v>
@@ -996,67 +996,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17">
         <v>16.3</v>
@@ -1082,10 +1082,10 @@
         <v>18.2</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1111,11 +1111,11 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1129,24 +1129,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
       </c>
       <c r="G22">
         <v>11.3</v>
@@ -1155,27 +1155,27 @@
         <v>12.2</v>
       </c>
       <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
       </c>
       <c r="G23">
         <v>11.3</v>
@@ -1184,27 +1184,27 @@
         <v>12.2</v>
       </c>
       <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
       </c>
       <c r="G24">
         <v>13.3</v>
@@ -1213,27 +1213,27 @@
         <v>14.2</v>
       </c>
       <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
       </c>
       <c r="G25">
         <v>13.3</v>
@@ -1242,27 +1242,27 @@
         <v>14.2</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
         <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>13.3</v>
@@ -1271,27 +1271,27 @@
         <v>14.2</v>
       </c>
       <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>13.3</v>
@@ -1300,27 +1300,27 @@
         <v>14.2</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
         <v>20</v>
       </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>15.3</v>
@@ -1329,27 +1329,27 @@
         <v>16.2</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>42</v>
       </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29">
         <v>10.3</v>
@@ -1358,27 +1358,27 @@
         <v>12.2</v>
       </c>
       <c r="I29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30">
         <v>10.3</v>
@@ -1387,27 +1387,27 @@
         <v>12.3</v>
       </c>
       <c r="I30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31">
         <v>12.3</v>
@@ -1416,27 +1416,27 @@
         <v>14.2</v>
       </c>
       <c r="I31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32">
         <v>12.3</v>
@@ -1445,27 +1445,27 @@
         <v>14.2</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
         <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33">
         <v>12.3</v>
@@ -1474,27 +1474,27 @@
         <v>14.2</v>
       </c>
       <c r="I33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34">
         <v>12.3</v>
@@ -1503,27 +1503,27 @@
         <v>14.2</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
         <v>20</v>
       </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35">
         <v>14.3</v>
@@ -1532,24 +1532,24 @@
         <v>16.2</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
         <v>55</v>
       </c>
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
         <v>6</v>
@@ -1561,27 +1561,27 @@
         <v>14.2</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
         <v>55</v>
-      </c>
-      <c r="D38" t="s">
-        <v>56</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G38">
         <v>9.3000000000000007</v>
@@ -1590,27 +1590,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="D39" t="s">
-        <v>56</v>
-      </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39">
         <v>11.3</v>
@@ -1619,27 +1619,27 @@
         <v>12.2</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
         <v>55</v>
-      </c>
-      <c r="D40" t="s">
-        <v>56</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>9.3000000000000007</v>
@@ -1648,27 +1648,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
         <v>55</v>
       </c>
-      <c r="D41" t="s">
-        <v>56</v>
-      </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41">
         <v>13.3</v>
@@ -1677,27 +1677,27 @@
         <v>14.2</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
         <v>55</v>
       </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42">
         <v>11.3</v>
@@ -1706,27 +1706,27 @@
         <v>12.2</v>
       </c>
       <c r="I42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
         <v>55</v>
       </c>
-      <c r="D43" t="s">
-        <v>56</v>
-      </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43">
         <v>13.3</v>
@@ -1735,27 +1735,27 @@
         <v>14.2</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
         <v>55</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44">
         <v>9.3000000000000007</v>
@@ -1764,27 +1764,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
         <v>55</v>
       </c>
-      <c r="D45" t="s">
-        <v>56</v>
-      </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45">
         <v>11.3</v>
@@ -1793,13 +1793,13 @@
         <v>12.2</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
         <v>0</v>
@@ -1811,21 +1811,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -1837,24 +1837,24 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -1869,21 +1869,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -1895,27 +1895,27 @@
         <v>15.2</v>
       </c>
       <c r="I51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G52">
         <v>8.3000000000000007</v>
@@ -1927,24 +1927,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G53">
         <v>9.3000000000000007</v>
@@ -1953,27 +1953,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" t="s">
-        <v>58</v>
       </c>
       <c r="G54">
         <v>10.3</v>
@@ -1982,27 +1982,27 @@
         <v>11.2</v>
       </c>
       <c r="I54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G55">
         <v>12.3</v>
@@ -2011,27 +2011,27 @@
         <v>13.2</v>
       </c>
       <c r="I55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>9.3000000000000007</v>
@@ -2040,27 +2040,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>11.3</v>
@@ -2072,24 +2072,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>12.3</v>
@@ -2098,27 +2098,27 @@
         <v>13.2</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59">
         <v>14.3</v>
@@ -2127,27 +2127,27 @@
         <v>15.2</v>
       </c>
       <c r="I59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G60">
         <v>8.3000000000000007</v>
@@ -2159,24 +2159,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G61">
         <v>9.3000000000000007</v>
@@ -2185,27 +2185,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G62">
         <v>8.3000000000000007</v>
@@ -2217,24 +2217,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G63">
         <v>9.3000000000000007</v>
@@ -2243,27 +2243,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G64">
         <v>12.3</v>
@@ -2272,27 +2272,27 @@
         <v>13.2</v>
       </c>
       <c r="I64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G65">
         <v>13.3</v>
@@ -2304,24 +2304,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G66">
         <v>16.3</v>
@@ -2330,30 +2330,30 @@
         <v>17.2</v>
       </c>
       <c r="I66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>7</v>
@@ -2362,89 +2362,89 @@
         <v>8</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="I69" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" t="s">
         <v>74</v>
       </c>
-      <c r="D72" t="s">
-        <v>75</v>
-      </c>
       <c r="E72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -2456,27 +2456,27 @@
         <v>12.2</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
         <v>74</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>75</v>
       </c>
-      <c r="E73" t="s">
-        <v>76</v>
-      </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G73">
         <v>11.3</v>
@@ -2485,27 +2485,27 @@
         <v>12.2</v>
       </c>
       <c r="I73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" t="s">
-        <v>75</v>
-      </c>
-      <c r="E74" t="s">
-        <v>71</v>
-      </c>
-      <c r="F74" t="s">
-        <v>58</v>
       </c>
       <c r="G74">
         <v>13.3</v>
@@ -2514,27 +2514,27 @@
         <v>14.2</v>
       </c>
       <c r="I74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" t="s">
-        <v>78</v>
-      </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>8.3000000000000007</v>
@@ -2543,27 +2543,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" t="s">
         <v>74</v>
       </c>
-      <c r="D76" t="s">
-        <v>75</v>
-      </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>12.3</v>
@@ -2572,27 +2572,27 @@
         <v>13.2</v>
       </c>
       <c r="I76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
         <v>74</v>
-      </c>
-      <c r="D77" t="s">
-        <v>75</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <v>12.3</v>
@@ -2601,27 +2601,27 @@
         <v>14.2</v>
       </c>
       <c r="I77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" t="s">
         <v>74</v>
       </c>
-      <c r="D78" t="s">
-        <v>75</v>
-      </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G78">
         <v>8.3000000000000007</v>
@@ -2630,27 +2630,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
         <v>74</v>
       </c>
-      <c r="D79" t="s">
-        <v>75</v>
-      </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G79">
         <v>10.3</v>
@@ -2659,27 +2659,27 @@
         <v>12.2</v>
       </c>
       <c r="I79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s">
         <v>74</v>
       </c>
-      <c r="D80" t="s">
-        <v>75</v>
-      </c>
       <c r="E80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G80">
         <v>11.3</v>
@@ -2688,27 +2688,27 @@
         <v>12.2</v>
       </c>
       <c r="I80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
         <v>74</v>
       </c>
-      <c r="D81" t="s">
-        <v>75</v>
-      </c>
       <c r="E81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G81">
         <v>16.3</v>
@@ -2717,27 +2717,27 @@
         <v>17.2</v>
       </c>
       <c r="I81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" t="s">
         <v>74</v>
       </c>
-      <c r="D82" t="s">
-        <v>75</v>
-      </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G82">
         <v>10.3</v>
@@ -2746,27 +2746,27 @@
         <v>12.2</v>
       </c>
       <c r="I82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s">
         <v>74</v>
       </c>
-      <c r="D83" t="s">
-        <v>75</v>
-      </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G83">
         <v>10.3</v>
@@ -2775,27 +2775,27 @@
         <v>12.2</v>
       </c>
       <c r="I83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -2807,24 +2807,24 @@
         <v>14.2</v>
       </c>
       <c r="I85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" t="s">
-        <v>84</v>
-      </c>
-      <c r="E86" t="s">
-        <v>47</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -2836,24 +2836,24 @@
         <v>16.2</v>
       </c>
       <c r="I86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" t="s">
-        <v>84</v>
-      </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -2865,27 +2865,27 @@
         <v>18.2</v>
       </c>
       <c r="I87" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G88">
         <v>8.3000000000000007</v>
@@ -2894,27 +2894,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G89">
         <v>8.3000000000000007</v>
@@ -2923,27 +2923,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G90">
         <v>14.3</v>
@@ -2952,27 +2952,27 @@
         <v>16.2</v>
       </c>
       <c r="I90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" t="s">
-        <v>84</v>
-      </c>
       <c r="E91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>12.3</v>
@@ -2981,27 +2981,27 @@
         <v>13.2</v>
       </c>
       <c r="I91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" t="s">
-        <v>47</v>
-      </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>14.3</v>
@@ -3010,27 +3010,27 @@
         <v>15.2</v>
       </c>
       <c r="I92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" t="s">
-        <v>84</v>
-      </c>
       <c r="E93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G93">
         <v>16.3</v>
@@ -3039,27 +3039,27 @@
         <v>17.2</v>
       </c>
       <c r="I93" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G94">
         <v>16.3</v>
@@ -3068,27 +3068,27 @@
         <v>18.2</v>
       </c>
       <c r="I94" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G95">
         <v>8.3000000000000007</v>
@@ -3097,27 +3097,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I95" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G96">
         <v>8.3000000000000007</v>
@@ -3126,27 +3126,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I96" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G97">
         <v>14.3</v>
@@ -3155,27 +3155,27 @@
         <v>15.2</v>
       </c>
       <c r="I97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" t="s">
-        <v>84</v>
-      </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G98">
         <v>16.3</v>
@@ -3184,13 +3184,13 @@
         <v>17.2</v>
       </c>
       <c r="I98" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G102" t="s">
         <v>0</v>
@@ -3202,24 +3202,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
       <c r="B103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" t="s">
         <v>27</v>
       </c>
-      <c r="C103" t="s">
-        <v>28</v>
-      </c>
       <c r="D103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G103">
         <v>12.3</v>
@@ -3228,27 +3228,27 @@
         <v>14.2</v>
       </c>
       <c r="I103" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
       <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
         <v>27</v>
       </c>
-      <c r="C104" t="s">
-        <v>28</v>
-      </c>
       <c r="D104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G104">
         <v>19</v>
@@ -3257,27 +3257,27 @@
         <v>22</v>
       </c>
       <c r="I104" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
       <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
         <v>27</v>
       </c>
-      <c r="C105" t="s">
-        <v>28</v>
-      </c>
       <c r="D105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G105">
         <v>12.3</v>
@@ -3286,13 +3286,13 @@
         <v>13.2</v>
       </c>
       <c r="I105" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
         <v>0</v>
@@ -3304,21 +3304,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" t="s">
+        <v>89</v>
+      </c>
+      <c r="E110" t="s">
         <v>90</v>
-      </c>
-      <c r="E110" t="s">
-        <v>91</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -3330,24 +3330,24 @@
         <v>11.2</v>
       </c>
       <c r="I110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" t="s">
+        <v>89</v>
+      </c>
+      <c r="E111" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" t="s">
-        <v>31</v>
-      </c>
-      <c r="D111" t="s">
-        <v>90</v>
-      </c>
-      <c r="E111" t="s">
-        <v>93</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -3359,24 +3359,24 @@
         <v>14.2</v>
       </c>
       <c r="I111" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F112" t="s">
         <v>6</v>
@@ -3388,24 +3388,24 @@
         <v>17.2</v>
       </c>
       <c r="I112" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -3417,27 +3417,27 @@
         <v>22</v>
       </c>
       <c r="I113" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G114">
         <v>14.3</v>
@@ -3446,27 +3446,27 @@
         <v>17.2</v>
       </c>
       <c r="I114" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>8.3000000000000007</v>
@@ -3475,27 +3475,27 @@
         <v>11.2</v>
       </c>
       <c r="I115" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>14.3</v>
@@ -3504,27 +3504,27 @@
         <v>17.2</v>
       </c>
       <c r="I116" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G117">
         <v>8.3000000000000007</v>
@@ -3533,27 +3533,27 @@
         <v>11.2</v>
       </c>
       <c r="I117" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G118">
         <v>11.3</v>
@@ -3562,27 +3562,27 @@
         <v>14.2</v>
       </c>
       <c r="I118" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G119">
         <v>8.3000000000000007</v>
@@ -3591,27 +3591,27 @@
         <v>11.2</v>
       </c>
       <c r="I119" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G120">
         <v>11.3</v>
@@ -3620,27 +3620,27 @@
         <v>14.2</v>
       </c>
       <c r="I120" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G121">
         <v>14.3</v>
@@ -3649,27 +3649,27 @@
         <v>17.2</v>
       </c>
       <c r="I121" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" t="s">
         <v>97</v>
-      </c>
-      <c r="D123" t="s">
-        <v>98</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G123">
         <v>19</v>
@@ -3678,69 +3678,69 @@
         <v>22</v>
       </c>
       <c r="I123" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G126" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H126" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H126" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="I126" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
